--- a/Notebooks/Matlab/src/parameter.xlsx
+++ b/Notebooks/Matlab/src/parameter.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schlichte\Documents\Matlab\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schlichte\Documents\work\veto_BRANCH_CALC_SHIFT_GTR15_AMD6_PROGR_CODE_SUBGRP\veto\veto_initial_data\legislation\matlab-calculation\wltp-calc-shifting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9511B4-003F-4F1A-8352-50A13918E5EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021F0C42-D249-424F-9946-28A6F4A66CC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1185" windowWidth="25470" windowHeight="14415" xr2:uid="{E9BDF431-48B5-4635-9A87-DAFBD97814E7}"/>
+    <workbookView xWindow="4530" yWindow="1170" windowWidth="23160" windowHeight="12330" xr2:uid="{E9BDF431-48B5-4635-9A87-DAFBD97814E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$2:$M$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$2:$M$140</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -461,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{93924AFC-FFFA-43DF-B530-285A4769984D}">
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{93924AFC-FFFA-43DF-B530-285A4769984D}">
       <text>
         <r>
           <rPr>
@@ -486,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{50130270-05A1-4C43-8466-A62543254BE7}">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{50130270-05A1-4C43-8466-A62543254BE7}">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{07BDDAEA-9FEB-4DC2-8EA3-06DCB7DCEBCF}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{07BDDAEA-9FEB-4DC2-8EA3-06DCB7DCEBCF}">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{181AB717-3B21-411C-9181-732C9FF70A96}">
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{181AB717-3B21-411C-9181-732C9FF70A96}">
       <text>
         <r>
           <rPr>
@@ -561,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{835897DE-1B88-457E-B6D6-99F9A6F889CD}">
+    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{835897DE-1B88-457E-B6D6-99F9A6F889CD}">
       <text>
         <r>
           <rPr>
@@ -585,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{2AF23CED-B23C-4C88-81A9-C3065CCB37B9}">
+    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{2AF23CED-B23C-4C88-81A9-C3065CCB37B9}">
       <text>
         <r>
           <rPr>
@@ -609,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D45" authorId="0" shapeId="0" xr:uid="{0D503DF6-2082-40F6-AAEA-EFB0C1377431}">
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{0D503DF6-2082-40F6-AAEA-EFB0C1377431}">
       <text>
         <r>
           <rPr>
@@ -633,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{1C5CDD56-48B5-4A6F-A1FA-5A8579797D0F}">
+    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{1C5CDD56-48B5-4A6F-A1FA-5A8579797D0F}">
       <text>
         <r>
           <rPr>
@@ -657,7 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K54" authorId="0" shapeId="0" xr:uid="{A90F3A51-DF5E-43A8-A5DB-58A35E314C5E}">
+    <comment ref="K57" authorId="0" shapeId="0" xr:uid="{A90F3A51-DF5E-43A8-A5DB-58A35E314C5E}">
       <text>
         <r>
           <rPr>
@@ -683,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D58" authorId="0" shapeId="0" xr:uid="{A3EAE314-2386-42D5-BE23-D9B6C5C380E2}">
+    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{A3EAE314-2386-42D5-BE23-D9B6C5C380E2}">
       <text>
         <r>
           <rPr>
@@ -708,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D59" authorId="0" shapeId="0" xr:uid="{6764ABE2-C19A-4585-887A-9F9A261B96D3}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{6764ABE2-C19A-4585-887A-9F9A261B96D3}">
       <text>
         <r>
           <rPr>
@@ -733,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M75" authorId="0" shapeId="0" xr:uid="{18B84CC9-FF16-47FD-8198-F7E2250790C8}">
+    <comment ref="M78" authorId="0" shapeId="0" xr:uid="{18B84CC9-FF16-47FD-8198-F7E2250790C8}">
       <text>
         <r>
           <rPr>
@@ -767,7 +767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M79" authorId="0" shapeId="0" xr:uid="{E6025930-70EA-4E4F-860F-D9C568F25309}">
+    <comment ref="M82" authorId="0" shapeId="0" xr:uid="{E6025930-70EA-4E4F-860F-D9C568F25309}">
       <text>
         <r>
           <rPr>
@@ -792,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I84" authorId="0" shapeId="0" xr:uid="{369BB715-921C-4750-A211-827438FA61BA}">
+    <comment ref="I87" authorId="0" shapeId="0" xr:uid="{369BB715-921C-4750-A211-827438FA61BA}">
       <text>
         <r>
           <rPr>
@@ -816,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I85" authorId="0" shapeId="0" xr:uid="{0B445874-5A89-4D20-AFBC-4DD045BE41D5}">
+    <comment ref="I88" authorId="0" shapeId="0" xr:uid="{0B445874-5A89-4D20-AFBC-4DD045BE41D5}">
       <text>
         <r>
           <rPr>
@@ -840,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I89" authorId="0" shapeId="0" xr:uid="{A9E9781E-E1C6-4FEE-93AC-40B88E8A751E}">
+    <comment ref="I92" authorId="0" shapeId="0" xr:uid="{A9E9781E-E1C6-4FEE-93AC-40B88E8A751E}">
       <text>
         <r>
           <rPr>
@@ -864,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L100" authorId="0" shapeId="0" xr:uid="{DBF7B8B6-E3EF-4043-B808-508CC19EB66E}">
+    <comment ref="L103" authorId="0" shapeId="0" xr:uid="{DBF7B8B6-E3EF-4043-B808-508CC19EB66E}">
       <text>
         <r>
           <rPr>
@@ -892,7 +892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D103" authorId="0" shapeId="0" xr:uid="{6568C23B-0918-4CFD-94EC-19B4DE8B9BD7}">
+    <comment ref="D106" authorId="0" shapeId="0" xr:uid="{6568C23B-0918-4CFD-94EC-19B4DE8B9BD7}">
       <text>
         <r>
           <rPr>
@@ -916,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{AA025E03-6CB5-4CA4-A553-D124216A54F3}">
+    <comment ref="D107" authorId="0" shapeId="0" xr:uid="{AA025E03-6CB5-4CA4-A553-D124216A54F3}">
       <text>
         <r>
           <rPr>
@@ -940,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D107" authorId="0" shapeId="0" xr:uid="{55966E3A-2A8D-40A8-AEAE-5242E072D47A}">
+    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{55966E3A-2A8D-40A8-AEAE-5242E072D47A}">
       <text>
         <r>
           <rPr>
@@ -964,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D108" authorId="0" shapeId="0" xr:uid="{32945DBB-A60D-4B79-957D-C74960608CE0}">
+    <comment ref="D111" authorId="0" shapeId="0" xr:uid="{32945DBB-A60D-4B79-957D-C74960608CE0}">
       <text>
         <r>
           <rPr>
@@ -993,7 +993,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="419">
   <si>
     <t>chapter</t>
   </si>
@@ -2228,13 +2228,28 @@
     <t>VBA calculate f_dsc_req</t>
   </si>
   <si>
-    <t>DoNotMergeCluchIntoGearsOutput (HORIBA SPECIAL)</t>
-  </si>
-  <si>
     <t>GearCorrectionsOutput (TEST ONLY)</t>
   </si>
   <si>
     <t>(HORIBA SPECIAL)</t>
+  </si>
+  <si>
+    <t>LimitVehicleSpeedByAvailablePower (TRUE)</t>
+  </si>
+  <si>
+    <t>ReturnAdjustedEngSpeedsAndAvlPowers (TRUE)</t>
+  </si>
+  <si>
+    <t>AllowSlippingClutchFor1stAnd2ndGear (FALSE)</t>
+  </si>
+  <si>
+    <t>Annex 6, 2.6.4.4</t>
+  </si>
+  <si>
+    <t>If the vehicle cannot follow the speed trace ...</t>
+  </si>
+  <si>
+    <t>DoNotMergeClutchIntoGearsOutput (HORIBA SPECIAL)</t>
   </si>
 </sst>
 </file>
@@ -2974,13 +2989,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAA95DF-FF71-4E95-81CE-474589296AA3}">
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,13 +3081,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="13"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -3261,7 +3276,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="39"/>
       <c r="L8" s="11" t="str">
-        <f>L75</f>
+        <f>L78</f>
         <v>Annex 1, 8.3</v>
       </c>
       <c r="M8" s="11" t="s">
@@ -3299,7 +3314,7 @@
         <v>55</v>
       </c>
       <c r="L9" s="11" t="str">
-        <f>L76</f>
+        <f>L79</f>
         <v>Annex 1, 8.3 (a)</v>
       </c>
       <c r="M9" s="11" t="s">
@@ -3377,7 +3392,7 @@
         <v>192</v>
       </c>
       <c r="M11" s="11" t="str">
-        <f>M61</f>
+        <f>M64</f>
         <v>Class 1, 2, 3a, 3b</v>
       </c>
     </row>
@@ -4029,7 +4044,7 @@
         <v>32</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="25"/>
@@ -4038,194 +4053,156 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="26"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="22">
+        <v>33</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="22">
+        <v>34</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>414</v>
+      </c>
       <c r="H32" s="13"/>
-      <c r="I32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="15"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="13" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>200</v>
       </c>
       <c r="F33" s="22">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>119</v>
+        <v>415</v>
       </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K33" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="I33" s="25"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="26"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F34" s="22">
-        <v>5</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="22">
-        <v>1</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="C35" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="25" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>56</v>
       </c>
       <c r="K35" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="13" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>200</v>
       </c>
       <c r="F36" s="22">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="25" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>56</v>
       </c>
       <c r="K36" s="39" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>257</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4233,36 +4210,36 @@
         <v>6</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="13" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>200</v>
       </c>
       <c r="F37" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="25" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>56</v>
       </c>
       <c r="K37" s="39" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4270,7 +4247,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="13" t="s">
@@ -4280,20 +4257,26 @@
         <v>200</v>
       </c>
       <c r="F38" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="H38" s="13"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="39"/>
+      <c r="I38" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="L38" s="11" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -4301,11 +4284,9 @@
         <v>6</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>366</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C39" s="15"/>
       <c r="D39" s="13" t="s">
         <v>225</v>
       </c>
@@ -4313,26 +4294,26 @@
         <v>200</v>
       </c>
       <c r="F39" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>56</v>
       </c>
       <c r="K39" s="39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -4340,7 +4321,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="13" t="s">
@@ -4350,26 +4331,26 @@
         <v>200</v>
       </c>
       <c r="F40" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>56</v>
       </c>
       <c r="K40" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4377,22 +4358,30 @@
         <v>6</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="13"/>
+      <c r="D41" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" s="22">
+        <v>4</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>216</v>
+      </c>
       <c r="H41" s="13"/>
       <c r="I41" s="25"/>
       <c r="J41" s="12"/>
       <c r="K41" s="39"/>
       <c r="L41" s="11" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -4400,28 +4389,38 @@
         <v>6</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="15"/>
+        <v>261</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>366</v>
+      </c>
       <c r="D42" s="13" t="s">
         <v>225</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F42" s="22"/>
+      <c r="F42" s="22">
+        <v>5</v>
+      </c>
       <c r="G42" s="13" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="H42" s="13"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="39"/>
+      <c r="I42" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="39" t="s">
+        <v>53</v>
+      </c>
       <c r="L42" s="11" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -4429,7 +4428,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>23</v>
+        <v>264</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="13" t="s">
@@ -4439,24 +4438,26 @@
         <v>200</v>
       </c>
       <c r="F43" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H43" s="13"/>
-      <c r="I43" s="25"/>
+      <c r="I43" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="J43" s="12" t="s">
         <v>56</v>
       </c>
       <c r="K43" s="39" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -4464,34 +4465,22 @@
         <v>6</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="C44" s="15"/>
-      <c r="D44" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F44" s="22">
-        <v>8</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K44" s="39" t="s">
-        <v>24</v>
-      </c>
+      <c r="J44" s="12"/>
+      <c r="K44" s="39"/>
       <c r="L44" s="11" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -4499,7 +4488,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="13" t="s">
@@ -4509,24 +4498,20 @@
         <v>200</v>
       </c>
       <c r="F45" s="22">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K45" s="39" t="s">
-        <v>25</v>
-      </c>
+      <c r="J45" s="12"/>
+      <c r="K45" s="39"/>
       <c r="L45" s="11" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>269</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -4534,7 +4519,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="13" t="s">
@@ -4544,76 +4529,102 @@
         <v>200</v>
       </c>
       <c r="F46" s="22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="H46" s="13"/>
-      <c r="I46" s="25" t="s">
-        <v>94</v>
-      </c>
+      <c r="I46" s="25"/>
       <c r="J46" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K46" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" s="22">
+        <v>8</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48" s="22">
+        <v>9</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="26"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K48" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="13" t="s">
@@ -4623,157 +4634,156 @@
         <v>200</v>
       </c>
       <c r="F49" s="22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>110</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H49" s="13"/>
       <c r="I49" s="25" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>59</v>
       </c>
       <c r="K49" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L49" s="11" t="s">
         <v>172</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="26"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F50" s="22">
-        <v>11</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K50" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F51" s="22">
-        <v>11</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>111</v>
-      </c>
+      <c r="B51" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
       <c r="I51" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>59</v>
       </c>
       <c r="K51" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" s="22">
+        <v>11</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K52" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="22">
+        <v>11</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K53" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L51" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="26"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K53" s="39" t="str">
-        <f>K32</f>
-        <v>vehicle_no</v>
-      </c>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="13" t="s">
         <v>225</v>
       </c>
@@ -4781,216 +4791,206 @@
         <v>200</v>
       </c>
       <c r="F54" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I54" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>93</v>
+      </c>
       <c r="J54" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K54" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="26"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K54" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="L54" s="11" t="str">
-        <f>L55</f>
-        <v>Annex 2, 2.(e)</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="K56" s="39" t="str">
+        <f>K35</f>
+        <v>vehicle_no</v>
+      </c>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="13" t="s">
+      <c r="B57" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F55" s="22">
-        <v>10</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I55" s="25"/>
-      <c r="J55" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K55" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="L55" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="M55" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="26"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="13" t="s">
-        <v>117</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>200</v>
       </c>
       <c r="F57" s="22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H57" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="I57" s="25"/>
       <c r="J57" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K57" s="39" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L57" s="11" t="str">
-        <f>L61</f>
-        <v>Annex 1, 3.</v>
-      </c>
-      <c r="M57" s="11" t="str">
-        <f>M61</f>
-        <v>Class 1, 2, 3a, 3b</v>
+        <f>L58</f>
+        <v>Annex 2, 2.(e)</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C58" s="20"/>
+      <c r="A58" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C58" s="15"/>
       <c r="D58" s="13" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="E58" s="22" t="s">
         <v>200</v>
       </c>
       <c r="F58" s="22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I58" s="25"/>
       <c r="J58" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="L58" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="27"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="26"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F60" s="22">
+        <v>13</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K58" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="L58" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="M58" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="K60" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" s="11" t="str">
+        <f>L64</f>
+        <v>Annex 1, 3.</v>
+      </c>
+      <c r="M60" s="11" t="str">
+        <f>M64</f>
+        <v>Class 1, 2, 3a, 3b</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F59" s="22">
-        <v>12</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K59" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L59" s="11" t="str">
-        <f>L58</f>
-        <v>Annex 1, Table A1..12</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="26"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="16"/>
+      <c r="B61" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="20"/>
       <c r="D61" s="13" t="s">
         <v>117</v>
       </c>
@@ -4998,156 +4998,163 @@
         <v>200</v>
       </c>
       <c r="F61" s="22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H61" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="I61" s="25"/>
       <c r="J61" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K61" s="39" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="M61" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="16"/>
+      <c r="A62" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="20"/>
       <c r="D62" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E62" s="22" t="str">
-        <f>E63</f>
-        <v>IN</v>
+      <c r="E62" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="F62" s="22">
-        <v>11</v>
-      </c>
-      <c r="G62" s="13" t="str">
-        <f>G63</f>
-        <v>PhaseLengths</v>
+        <v>12</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="I62" s="25"/>
       <c r="J62" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K62" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="L62" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L62" s="11" t="str">
+        <f>L61</f>
+        <v>Annex 1, Table A1..12</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="26"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="22">
+        <v>13</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K64" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="M62" s="17" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F63" s="22">
-        <v>11</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I63" s="25"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="26"/>
+      <c r="M64" s="17" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>302</v>
+        <v>30</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="22" t="s">
-        <v>200</v>
+      <c r="E65" s="22" t="str">
+        <f>E66</f>
+        <v>IN</v>
       </c>
       <c r="F65" s="22">
-        <v>13</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H65" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="G65" s="13" t="str">
+        <f>G66</f>
+        <v>PhaseLengths</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="I65" s="25"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="11" t="str">
-        <f>L61</f>
-        <v>Annex 1, 3.</v>
-      </c>
-      <c r="M65" s="11" t="str">
-        <f>M61</f>
-        <v>Class 1, 2, 3a, 3b</v>
+      <c r="J65" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K65" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M65" s="17" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>367</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="16"/>
       <c r="D66" s="13" t="s">
         <v>117</v>
       </c>
@@ -5155,69 +5162,47 @@
         <v>200</v>
       </c>
       <c r="F66" s="22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="I66" s="25"/>
       <c r="J66" s="12"/>
       <c r="K66" s="39"/>
       <c r="L66" s="11" t="s">
-        <v>226</v>
+        <v>393</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="26"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" s="22">
-        <v>6</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="I67" s="25"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>369</v>
-      </c>
+      <c r="B68" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="16"/>
       <c r="D68" s="13" t="s">
         <v>117</v>
       </c>
@@ -5225,34 +5210,33 @@
         <v>200</v>
       </c>
       <c r="F68" s="22">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>297</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H68" s="13"/>
       <c r="I68" s="25"/>
       <c r="J68" s="12"/>
       <c r="K68" s="39"/>
-      <c r="L68" s="17" t="str">
-        <f>L67</f>
-        <v>Annex 1, 8.2.1..3</v>
-      </c>
-      <c r="M68" s="11" t="s">
-        <v>165</v>
+      <c r="L68" s="11" t="str">
+        <f>L64</f>
+        <v>Annex 1, 3.</v>
+      </c>
+      <c r="M68" s="11" t="str">
+        <f>M64</f>
+        <v>Class 1, 2, 3a, 3b</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B69" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>370</v>
+      <c r="B69" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>367</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>117</v>
@@ -5261,10 +5245,10 @@
         <v>200</v>
       </c>
       <c r="F69" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>297</v>
@@ -5272,12 +5256,11 @@
       <c r="I69" s="25"/>
       <c r="J69" s="12"/>
       <c r="K69" s="39"/>
-      <c r="L69" s="17" t="str">
-        <f>L67</f>
-        <v>Annex 1, 8.2.1..3</v>
+      <c r="L69" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -5285,30 +5268,34 @@
         <v>302</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="16"/>
+        <v>371</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>368</v>
+      </c>
       <c r="D70" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
+      <c r="E70" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F70" s="22">
+        <v>6</v>
+      </c>
       <c r="G70" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="H70" s="13"/>
+        <v>124</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>297</v>
+      </c>
       <c r="I70" s="25"/>
-      <c r="J70" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="K70" s="39" t="s">
-        <v>409</v>
-      </c>
+      <c r="J70" s="12"/>
+      <c r="K70" s="39"/>
       <c r="L70" s="17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -5316,31 +5303,35 @@
         <v>302</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="16"/>
+        <v>372</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>369</v>
+      </c>
       <c r="D71" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
+      <c r="E71" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71" s="22">
+        <v>7</v>
+      </c>
       <c r="G71" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="H71" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>297</v>
+      </c>
       <c r="I71" s="25"/>
-      <c r="J71" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="K71" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="L71" s="11" t="str">
+      <c r="J71" s="12"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="17" t="str">
         <f>L70</f>
-        <v>Anne 1, 8.3</v>
+        <v>Annex 1, 8.2.1..3</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -5348,167 +5339,177 @@
         <v>302</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="16"/>
+        <v>373</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>370</v>
+      </c>
       <c r="D72" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
+      <c r="E72" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F72" s="22">
+        <v>8</v>
+      </c>
       <c r="G72" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I72" s="25"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="17" t="str">
+        <f>L70</f>
+        <v>Annex 1, 8.2.1..3</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="12" t="s">
+      <c r="H73" s="13"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="K72" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="L72" s="11" t="str">
-        <f>L70</f>
-        <v>Anne 1, 8.3</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="26"/>
+      <c r="K73" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>5</v>
+      <c r="A74" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="C74" s="16"/>
-      <c r="D74" s="13"/>
+      <c r="D74" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
-      <c r="G74" s="13"/>
+      <c r="G74" s="13" t="s">
+        <v>400</v>
+      </c>
       <c r="H74" s="13"/>
       <c r="I74" s="25"/>
       <c r="J74" s="12" t="s">
-        <v>67</v>
+        <v>410</v>
       </c>
       <c r="K74" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
+        <v>299</v>
+      </c>
+      <c r="L74" s="11" t="str">
+        <f>L73</f>
+        <v>Anne 1, 8.3</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>198</v>
+        <v>302</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E75" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F75" s="22">
-        <v>1</v>
-      </c>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="13" t="s">
-        <v>142</v>
+        <v>400</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="11" t="s">
-        <v>228</v>
+      <c r="J75" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="K75" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="L75" s="11" t="str">
+        <f>L73</f>
+        <v>Anne 1, 8.3</v>
       </c>
       <c r="M75" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="26"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K77" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F76" s="22">
-        <v>2</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H76" s="13"/>
-      <c r="I76" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="J76" s="12"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F77" s="22">
-        <v>3</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="I77" s="25"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="M77" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="13" t="s">
         <v>117</v>
@@ -5517,34 +5518,30 @@
         <v>199</v>
       </c>
       <c r="F78" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>297</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H78" s="13"/>
       <c r="I78" s="25"/>
       <c r="J78" s="12"/>
       <c r="K78" s="39"/>
       <c r="L78" s="11" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B79" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>374</v>
-      </c>
+      <c r="B79" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="16"/>
       <c r="D79" s="13" t="s">
         <v>117</v>
       </c>
@@ -5552,29 +5549,27 @@
         <v>199</v>
       </c>
       <c r="F79" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H79" s="13"/>
-      <c r="I79" s="25"/>
+      <c r="I79" s="25" t="s">
+        <v>177</v>
+      </c>
       <c r="J79" s="12"/>
       <c r="K79" s="39"/>
       <c r="L79" s="11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>229</v>
-      </c>
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="13" t="s">
         <v>117</v>
@@ -5583,29 +5578,27 @@
         <v>199</v>
       </c>
       <c r="F80" s="22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H80" s="13"/>
+        <v>218</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>297</v>
+      </c>
       <c r="I80" s="25"/>
       <c r="J80" s="12"/>
       <c r="K80" s="39"/>
       <c r="L80" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>187</v>
-      </c>
+      <c r="A81" s="15"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="13" t="s">
         <v>117</v>
@@ -5614,20 +5607,22 @@
         <v>199</v>
       </c>
       <c r="F81" s="22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="H81" s="13"/>
+        <v>219</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>297</v>
+      </c>
       <c r="I81" s="25"/>
       <c r="J81" s="12"/>
       <c r="K81" s="39"/>
       <c r="L81" s="11" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -5635,36 +5630,32 @@
         <v>309</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="E82" s="22" t="s">
         <v>199</v>
       </c>
       <c r="F82" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K82" s="39" t="s">
-        <v>81</v>
-      </c>
+      <c r="J82" s="12"/>
+      <c r="K82" s="39"/>
       <c r="L82" s="11" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>235</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -5672,32 +5663,30 @@
         <v>309</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>375</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C83" s="16"/>
       <c r="D83" s="13" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="E83" s="22" t="s">
         <v>199</v>
       </c>
       <c r="F83" s="22">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="H83" s="13"/>
       <c r="I83" s="25"/>
       <c r="J83" s="12"/>
       <c r="K83" s="39"/>
       <c r="L83" s="11" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -5705,32 +5694,30 @@
         <v>309</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="13" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="E84" s="22" t="s">
         <v>199</v>
       </c>
       <c r="F84" s="22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="H84" s="13"/>
-      <c r="I84" s="25" t="s">
-        <v>242</v>
-      </c>
+      <c r="I84" s="25"/>
       <c r="J84" s="12"/>
       <c r="K84" s="39"/>
       <c r="L84" s="11" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -5738,9 +5725,11 @@
         <v>309</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C85" s="16"/>
+        <v>337</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>378</v>
+      </c>
       <c r="D85" s="13" t="s">
         <v>225</v>
       </c>
@@ -5748,22 +5737,24 @@
         <v>199</v>
       </c>
       <c r="F85" s="22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H85" s="13"/>
-      <c r="I85" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="J85" s="12"/>
-      <c r="K85" s="39"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K85" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="L85" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -5771,9 +5762,11 @@
         <v>309</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C86" s="16"/>
+        <v>338</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>375</v>
+      </c>
       <c r="D86" s="13" t="s">
         <v>225</v>
       </c>
@@ -5781,20 +5774,20 @@
         <v>199</v>
       </c>
       <c r="F86" s="22">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="25"/>
       <c r="J86" s="12"/>
       <c r="K86" s="39"/>
       <c r="L86" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -5802,7 +5795,7 @@
         <v>309</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="13" t="s">
@@ -5812,20 +5805,22 @@
         <v>199</v>
       </c>
       <c r="F87" s="22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="H87" s="13"/>
-      <c r="I87" s="25"/>
+      <c r="I87" s="25" t="s">
+        <v>242</v>
+      </c>
       <c r="J87" s="12"/>
       <c r="K87" s="39"/>
       <c r="L87" s="11" t="s">
         <v>239</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -5833,11 +5828,9 @@
         <v>309</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>380</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C88" s="16"/>
       <c r="D88" s="13" t="s">
         <v>225</v>
       </c>
@@ -5845,20 +5838,22 @@
         <v>199</v>
       </c>
       <c r="F88" s="22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="H88" s="13"/>
-      <c r="I88" s="25"/>
+      <c r="I88" s="25" t="s">
+        <v>248</v>
+      </c>
       <c r="J88" s="12"/>
       <c r="K88" s="39"/>
       <c r="L88" s="11" t="s">
         <v>239</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -5866,11 +5861,9 @@
         <v>309</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>381</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C89" s="16"/>
       <c r="D89" s="13" t="s">
         <v>225</v>
       </c>
@@ -5878,22 +5871,20 @@
         <v>199</v>
       </c>
       <c r="F89" s="22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="H89" s="13"/>
-      <c r="I89" s="25" t="s">
-        <v>229</v>
-      </c>
+      <c r="I89" s="25"/>
       <c r="J89" s="12"/>
       <c r="K89" s="39"/>
       <c r="L89" s="11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -5901,11 +5892,9 @@
         <v>309</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>382</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C90" s="16"/>
       <c r="D90" s="13" t="s">
         <v>225</v>
       </c>
@@ -5913,20 +5902,20 @@
         <v>199</v>
       </c>
       <c r="F90" s="22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="25"/>
       <c r="J90" s="12"/>
       <c r="K90" s="39"/>
       <c r="L90" s="11" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -5934,10 +5923,10 @@
         <v>309</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>225</v>
@@ -5946,20 +5935,20 @@
         <v>199</v>
       </c>
       <c r="F91" s="22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="H91" s="13"/>
       <c r="I91" s="25"/>
       <c r="J91" s="12"/>
       <c r="K91" s="39"/>
       <c r="L91" s="11" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -5967,10 +5956,10 @@
         <v>309</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>225</v>
@@ -5979,20 +5968,22 @@
         <v>199</v>
       </c>
       <c r="F92" s="22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H92" s="13"/>
-      <c r="I92" s="25"/>
+      <c r="I92" s="25" t="s">
+        <v>229</v>
+      </c>
       <c r="J92" s="12"/>
       <c r="K92" s="39"/>
       <c r="L92" s="11" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -6000,10 +5991,10 @@
         <v>309</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>225</v>
@@ -6012,20 +6003,20 @@
         <v>199</v>
       </c>
       <c r="F93" s="22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="H93" s="13"/>
       <c r="I93" s="25"/>
       <c r="J93" s="12"/>
       <c r="K93" s="39"/>
       <c r="L93" s="11" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M93" s="11" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -6033,10 +6024,10 @@
         <v>309</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>225</v>
@@ -6045,31 +6036,31 @@
         <v>199</v>
       </c>
       <c r="F94" s="22">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="25"/>
       <c r="J94" s="12"/>
       <c r="K94" s="39"/>
       <c r="L94" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>315</v>
+      <c r="B95" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D95" s="13" t="s">
         <v>225</v>
@@ -6078,72 +6069,98 @@
         <v>199</v>
       </c>
       <c r="F95" s="22">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H95" s="13"/>
-      <c r="I95" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K95" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="L95" s="17" t="s">
-        <v>135</v>
+      <c r="I95" s="25"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="M95" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="42"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="26"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F96" s="22">
+        <v>18</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" s="13"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
+      <c r="A97" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F97" s="22">
+        <v>19</v>
+      </c>
       <c r="G97" s="13" t="s">
-        <v>413</v>
+        <v>47</v>
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="25"/>
       <c r="J97" s="12"/>
       <c r="K97" s="39"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
+      <c r="L97" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C98" s="16"/>
+      <c r="A98" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>355</v>
+      </c>
       <c r="D98" s="13" t="s">
         <v>225</v>
       </c>
@@ -6151,224 +6168,234 @@
         <v>199</v>
       </c>
       <c r="F98" s="22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I98" s="25"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="11" t="s">
-        <v>172</v>
+        <v>48</v>
+      </c>
+      <c r="H98" s="13"/>
+      <c r="I98" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K98" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="L98" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="27"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="26"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B99" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F99" s="22">
-        <v>9</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I99" s="25"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="M99" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>29</v>
+      <c r="B100" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="C100" s="16"/>
-      <c r="D100" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F100" s="22">
-        <v>9</v>
-      </c>
+      <c r="D100" s="13"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
       <c r="G100" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>111</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="H100" s="13"/>
       <c r="I100" s="25"/>
       <c r="J100" s="12"/>
       <c r="K100" s="39"/>
-      <c r="L100" s="11" t="s">
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="16"/>
+      <c r="D101" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F101" s="22">
+        <v>9</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I101" s="25"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="M100" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="26"/>
+      <c r="M101" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>5</v>
+      <c r="A102" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>273</v>
       </c>
       <c r="C102" s="16"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
+      <c r="D102" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F102" s="22">
+        <v>9</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="I102" s="25"/>
       <c r="J102" s="12"/>
       <c r="K102" s="39"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
+      <c r="L102" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>271</v>
+      <c r="A103" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="13" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="E103" s="22" t="s">
         <v>199</v>
       </c>
       <c r="F103" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I103" s="25"/>
       <c r="J103" s="12"/>
       <c r="K103" s="39"/>
       <c r="L103" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="M103" s="11"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="27"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="26"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B104" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F104" s="22">
-        <v>10</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I104" s="25"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="39"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="11"/>
-    </row>
-    <row r="105" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="27"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="42"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="26"/>
+      <c r="B105" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>5</v>
+        <v>271</v>
       </c>
       <c r="C106" s="16"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
+      <c r="D106" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F106" s="22">
+        <v>10</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="I106" s="25"/>
       <c r="J106" s="12"/>
       <c r="K106" s="39"/>
-      <c r="L106" s="11"/>
+      <c r="L106" s="11" t="s">
+        <v>395</v>
+      </c>
       <c r="M106" s="11"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>271</v>
+      <c r="A107" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="13" t="s">
@@ -6378,102 +6405,62 @@
         <v>199</v>
       </c>
       <c r="F107" s="22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I107" s="25"/>
       <c r="J107" s="12"/>
       <c r="K107" s="39"/>
-      <c r="L107" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="M107" s="11" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+    </row>
+    <row r="108" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="27"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="26"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B108" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F108" s="22">
-        <v>11</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I108" s="25"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="39"/>
-      <c r="L108" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="M108" s="11" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F109" s="22">
-        <v>11</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>111</v>
-      </c>
+      <c r="B109" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="16"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
       <c r="I109" s="25"/>
       <c r="J109" s="12"/>
       <c r="K109" s="39"/>
-      <c r="L109" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="M109" s="11" t="s">
-        <v>399</v>
-      </c>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B110" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>384</v>
-      </c>
+      <c r="B110" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C110" s="16"/>
       <c r="D110" s="13" t="s">
         <v>117</v>
       </c>
@@ -6487,16 +6474,16 @@
         <v>188</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="I110" s="25"/>
       <c r="J110" s="12"/>
       <c r="K110" s="39"/>
       <c r="L110" s="11" t="s">
-        <v>398</v>
+        <v>191</v>
       </c>
       <c r="M110" s="11" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -6504,11 +6491,9 @@
         <v>303</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>385</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C111" s="16"/>
       <c r="D111" s="13" t="s">
         <v>117</v>
       </c>
@@ -6522,60 +6507,98 @@
         <v>188</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="I111" s="25"/>
       <c r="J111" s="12"/>
       <c r="K111" s="39"/>
       <c r="L111" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M111" s="11" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="27"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="42"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="26"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F112" s="22">
+        <v>11</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I112" s="25"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="39"/>
+      <c r="L112" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
+      <c r="A113" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F113" s="22">
+        <v>11</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>221</v>
+      </c>
       <c r="I113" s="25"/>
       <c r="J113" s="12"/>
       <c r="K113" s="39"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
+      <c r="L113" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="M113" s="11" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C114" s="16"/>
+      <c r="A114" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>385</v>
+      </c>
       <c r="D114" s="13" t="s">
         <v>117</v>
       </c>
@@ -6583,320 +6606,316 @@
         <v>199</v>
       </c>
       <c r="F114" s="22">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>341</v>
+        <v>188</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="I114" s="25"/>
       <c r="J114" s="12"/>
       <c r="K114" s="39"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
+      <c r="L114" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="27"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="26"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B115" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F115" s="22">
-        <v>6</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I115" s="25"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="39"/>
-      <c r="L115" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="M115" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F116" s="22">
-        <v>9</v>
-      </c>
-      <c r="G116" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="B116" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="16"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
       <c r="I116" s="25"/>
       <c r="J116" s="12"/>
       <c r="K116" s="39"/>
-      <c r="L116" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M116" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="27"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="37"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="42"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="26"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F117" s="22">
+        <v>6</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I117" s="25"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
+      <c r="A118" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F118" s="22">
+        <v>6</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="I118" s="25"/>
-      <c r="J118" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K118" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="39"/>
+      <c r="L118" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C119" s="16"/>
+      <c r="A119" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="D119" s="13" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="E119" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="F119" s="22" t="s">
-        <v>205</v>
+      <c r="F119" s="22">
+        <v>9</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>204</v>
+        <v>342</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I119" s="25"/>
-      <c r="J119" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K119" s="39" t="s">
-        <v>65</v>
-      </c>
+      <c r="J119" s="12"/>
+      <c r="K119" s="39"/>
       <c r="L119" s="11" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="M119" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="27"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="42"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="26"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B120" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C120" s="16"/>
-      <c r="D120" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E120" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F120" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="H120" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I120" s="25"/>
-      <c r="J120" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K120" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="L120" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="M120" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>60</v>
+      <c r="B121" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="C121" s="16"/>
-      <c r="D121" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E121" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F121" s="22">
-        <v>7</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="D121" s="13"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
       <c r="I121" s="25"/>
       <c r="J121" s="12" t="s">
         <v>78</v>
       </c>
       <c r="K121" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="L121" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="M121" s="11" t="s">
-        <v>288</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B122" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>387</v>
-      </c>
+      <c r="B122" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="16"/>
       <c r="D122" s="13" t="s">
         <v>225</v>
       </c>
       <c r="E122" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="F122" s="22">
-        <v>8</v>
+      <c r="F122" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>343</v>
+        <v>204</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I122" s="25"/>
       <c r="J122" s="12" t="s">
         <v>78</v>
       </c>
       <c r="K122" s="39" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="L122" s="11" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="27"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="37"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="42"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="26"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" s="16"/>
+      <c r="D123" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F123" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I123" s="25"/>
+      <c r="J123" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K123" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>5</v>
+      <c r="A124" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="C124" s="16"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
+      <c r="D124" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F124" s="22">
+        <v>7</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="I124" s="25"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="39"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
+      <c r="J124" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K124" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M124" s="11" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C125" s="16"/>
+      <c r="A125" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>387</v>
+      </c>
       <c r="D125" s="13" t="s">
         <v>225</v>
       </c>
@@ -6904,102 +6923,68 @@
         <v>199</v>
       </c>
       <c r="F125" s="22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>202</v>
+        <v>343</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I125" s="25"/>
       <c r="J125" s="12" t="s">
         <v>78</v>
       </c>
       <c r="K125" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M125" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="27"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="42"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="26"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="B126" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E126" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F126" s="22">
+      <c r="B127" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G126" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I126" s="25"/>
-      <c r="J126" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K126" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L126" s="11"/>
-      <c r="M126" s="11"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="15" t="s">
+      <c r="C127" s="16"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="B127" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E127" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F127" s="22">
-        <v>6</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H127" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I127" s="25"/>
-      <c r="J127" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K127" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="L127" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="M127" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>244</v>
+      <c r="B128" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="C128" s="16"/>
       <c r="D128" s="13" t="s">
@@ -7009,38 +6994,32 @@
         <v>199</v>
       </c>
       <c r="F128" s="22">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I128" s="25"/>
       <c r="J128" s="12" t="s">
         <v>78</v>
       </c>
       <c r="K128" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="L128" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="M128" s="11" t="s">
-        <v>132</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>304</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>38</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C129" s="16"/>
       <c r="D129" s="13" t="s">
         <v>225</v>
       </c>
@@ -7048,33 +7027,33 @@
         <v>199</v>
       </c>
       <c r="F129" s="22">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="H129" s="13" t="s">
         <v>100</v>
       </c>
       <c r="I129" s="25"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="39"/>
-      <c r="L129" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="M129" s="11" t="s">
-        <v>282</v>
-      </c>
+      <c r="J129" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K129" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>304</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>225</v>
@@ -7083,22 +7062,26 @@
         <v>199</v>
       </c>
       <c r="F130" s="22">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="H130" s="13" t="s">
         <v>100</v>
       </c>
       <c r="I130" s="25"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="39"/>
+      <c r="J130" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K130" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="L130" s="11" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M130" s="11" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -7106,7 +7089,7 @@
         <v>304</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="13" t="s">
@@ -7116,10 +7099,10 @@
         <v>199</v>
       </c>
       <c r="F131" s="22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H131" s="13" t="s">
         <v>100</v>
@@ -7129,19 +7112,25 @@
         <v>78</v>
       </c>
       <c r="K131" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="L131" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="M131" s="11" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>304</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C132" s="16"/>
+        <v>274</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="D132" s="13" t="s">
         <v>225</v>
       </c>
@@ -7149,70 +7138,98 @@
         <v>199</v>
       </c>
       <c r="F132" s="22">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>412</v>
+        <v>214</v>
       </c>
       <c r="H132" s="13" t="s">
         <v>100</v>
       </c>
       <c r="I132" s="25"/>
-      <c r="J132" s="12" t="s">
+      <c r="J132" s="12"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M132" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F133" s="22">
+        <v>23</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I133" s="25"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="M133" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" s="16"/>
+      <c r="D134" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F134" s="22">
+        <v>24</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I134" s="25"/>
+      <c r="J134" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K132" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="L132" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="M132" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="27"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="42"/>
-      <c r="L133" s="7"/>
-      <c r="M133" s="26"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="16"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="H134" s="13"/>
-      <c r="I134" s="25"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="39"/>
+      <c r="K134" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="L134" s="11"/>
       <c r="M134" s="11"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>271</v>
+      <c r="A135" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="13" t="s">
@@ -7222,70 +7239,143 @@
         <v>199</v>
       </c>
       <c r="F135" s="22">
+        <v>25</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I135" s="25"/>
+      <c r="J135" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K135" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="L135" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="M135" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="27"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="37"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="42"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="26"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="16"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="H137" s="13"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="39"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C138" s="16"/>
+      <c r="D138" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F138" s="22">
         <v>1</v>
       </c>
-      <c r="G135" s="13" t="s">
+      <c r="G138" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="H135" s="13" t="s">
+      <c r="H138" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I135" s="25"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="39"/>
-      <c r="L135" s="11"/>
-      <c r="M135" s="11" t="s">
+      <c r="I138" s="25"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="39"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B139" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C136" s="16"/>
-      <c r="D136" s="13" t="s">
+      <c r="C139" s="16"/>
+      <c r="D139" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E136" s="22" t="s">
+      <c r="E139" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="F136" s="22">
+      <c r="F139" s="22">
         <v>1</v>
       </c>
-      <c r="G136" s="13" t="s">
+      <c r="G139" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="H136" s="13" t="s">
+      <c r="H139" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I136" s="25"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="39"/>
-      <c r="L136" s="11"/>
-      <c r="M136" s="11" t="s">
+      <c r="I139" s="25"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="39"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="137" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="27"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="24"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="42"/>
-      <c r="L137" s="7"/>
-      <c r="M137" s="26"/>
+    <row r="140" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="27"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="37"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="42"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M137" xr:uid="{CE46EEF9-3D21-4E49-BF97-33F6650386D1}"/>
+  <autoFilter ref="A2:M140" xr:uid="{CE46EEF9-3D21-4E49-BF97-33F6650386D1}"/>
   <mergeCells count="1">
     <mergeCell ref="E1:H1"/>
   </mergeCells>
